--- a/보고/보고양식(신지원).xlsx
+++ b/보고/보고양식(신지원).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F054BA-AD7D-48BE-9000-4EEC6AD11536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E0913C-0DCD-4872-AE61-1698D81D2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1">
@@ -2408,7 +2408,7 @@
         <v>0.08</v>
       </c>
       <c r="K42" s="9">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="2:15">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="6"/>
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="6"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="O44" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="2:15">

--- a/보고/보고양식(신지원).xlsx
+++ b/보고/보고양식(신지원).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E0913C-0DCD-4872-AE61-1698D81D2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9768947-47CF-4C9B-9E85-5EB917070457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">총 </t>
   </si>
   <si>
+    <t>모바일 사이즈로 다시 작업 시작</t>
+  </si>
+  <si>
     <t>페이지</t>
   </si>
   <si>
@@ -50,87 +53,57 @@
     <t>박민수</t>
   </si>
   <si>
-    <t>메인페이지</t>
+    <t>메인페이지
+회원가입
+로그인</t>
   </si>
   <si>
     <t>메인 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카카오맵 지도 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 후 메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 / 소셜 로그인</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>쿠폰함</t>
   </si>
   <si>
     <t>김홍준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>마이페이지 메인</t>
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제수단 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>차량관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이용내역 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업로드한 주차장 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고재찬</t>
-  </si>
-  <si>
-    <t>회원가입
-로그인</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>아이디찾기</t>
-  </si>
-  <si>
-    <t>아이디확인</t>
-  </si>
-  <si>
-    <t>비밀번호찾기</t>
-  </si>
-  <si>
-    <t>비밀번호재설정</t>
-  </si>
-  <si>
-    <t>인증페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>민병욱</t>
@@ -140,7 +113,6 @@
   </si>
   <si>
     <t>주차업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김영채</t>
@@ -151,47 +123,36 @@
   </si>
   <si>
     <t>내위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주변 주차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로드뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>즐겨찾기 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유의사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신지원</t>
@@ -201,11 +162,6 @@
   </si>
   <si>
     <t>이벤트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기/쿠폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -385,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +375,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,10 +394,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,12 +415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,7 +439,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -504,7 +469,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -818,26 +783,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="14" width="10.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:22">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -869,60 +833,114 @@
       <c r="O2" s="3">
         <v>45166</v>
       </c>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="P2" s="3">
+        <v>45167</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45168</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45169</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45170</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45171</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45172</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F10,F18,F27,F29,F41,F44)</f>
-        <v>0</v>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>6.1428571428571423E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3818181818181819E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11537662337662338</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>4.1666666666666666E-3</v>
+        <v>0.16355844155844157</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
+        <v>0.25379220779220779</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.321064935064935</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.38132467532467529</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43483116883116885</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51462337662337665</v>
       </c>
       <c r="O3" s="6">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1">
+        <v>0.60779220779220777</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:T3" si="1">AVERAGE(P13,P21,P23,P35,P37)</f>
+        <v>0.61636363636363634</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" ref="U3:V3" si="2">AVERAGE(U13,U21,U23,U35,U37)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <v>45157</v>
@@ -954,92 +972,155 @@
       <c r="O5" s="3">
         <v>45166</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="P5" s="3">
+        <v>45167</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45168</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45169</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45170</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45171</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45172</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B7" s="14"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
+        <v>0.6</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -1052,31 +1133,54 @@
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
         <v>0</v>
@@ -1088,82 +1192,112 @@
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="16.149999999999999" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="14"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:O10" si="1">AVERAGE(F6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="14"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -1179,29 +1313,52 @@
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1226,134 +1383,237 @@
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="10" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:O13" si="3">AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.61428571428571421</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" ref="P13" si="4">AVERAGE(P6:P12)</f>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" ref="Q13" si="5">AVERAGE(Q6:Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" ref="R13" si="6">AVERAGE(R6:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" ref="S13" si="7">AVERAGE(S6:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" ref="T13" si="8">AVERAGE(T6:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" ref="U13" si="9">AVERAGE(U6:U12)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13" si="10">AVERAGE(V6:V12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
+      <c r="D14" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N15" s="9">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="10" t="s">
-        <v>15</v>
+        <v>0.6</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1386,12 +1646,33 @@
       <c r="O16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="23"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -1410,76 +1691,106 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="23"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:O18" si="2">AVERAGE(F11:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>19</v>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="23"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -1504,20 +1815,41 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -1545,169 +1877,312 @@
         <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="12"/>
-      <c r="C22" s="21"/>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:O21" si="11">AVERAGE(F14:F20)</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="11"/>
+        <v>3.1428571428571431E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.06</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.19285714285714287</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.19285714285714284</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.20714285714285713</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.39571428571428574</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21" si="12">AVERAGE(P14:P20)</f>
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21" si="13">AVERAGE(Q14:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21" si="14">AVERAGE(R14:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21" si="15">AVERAGE(S14:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21" si="16">AVERAGE(T14:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21" si="17">AVERAGE(U14:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" ref="V21" si="18">AVERAGE(V14:V20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="12"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="15"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="12"/>
-      <c r="C24" s="21"/>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23:O23" si="19">AVERAGE(F22:F22)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="19"/>
+        <v>0.95</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" ref="P23" si="20">AVERAGE(P22:P22)</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" ref="Q23" si="21">AVERAGE(Q22:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23" si="22">AVERAGE(R22:R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" ref="S23" si="23">AVERAGE(S22:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" ref="T23" si="24">AVERAGE(T22:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" ref="U23" si="25">AVERAGE(U22:U22)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" ref="V23" si="26">AVERAGE(V22:V22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K24" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="12"/>
-      <c r="C25" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -1720,32 +2195,53 @@
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J25" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K25" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N25" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -1764,76 +2260,106 @@
         <v>0</v>
       </c>
       <c r="K26" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L26" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="6">
-        <f t="shared" ref="F27:O27" si="3">AVERAGE(F19:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
@@ -1866,62 +2392,92 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="7"/>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="6">
-        <f t="shared" ref="F29:O29" si="4">AVERAGE(F28:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -1954,12 +2510,33 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="12"/>
-      <c r="C31" s="21"/>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -1992,12 +2569,33 @@
       <c r="O31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="12"/>
-      <c r="C32" s="21"/>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2019,23 +2617,44 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N32" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="12"/>
-      <c r="C33" s="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2068,12 +2687,33 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="12"/>
-      <c r="C34" s="21"/>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -2106,701 +2746,311 @@
       <c r="O34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="12"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="12"/>
-      <c r="C36" s="21"/>
+      <c r="F35" s="6">
+        <f t="shared" ref="F35:O35" si="27">AVERAGE(F24:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="27"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="27"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="27"/>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="27"/>
+        <v>8.1818181818181804E-2</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="27"/>
+        <v>0.11818181818181818</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="27"/>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="27"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="27"/>
+        <v>0.35454545454545455</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="27"/>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" ref="P35" si="28">AVERAGE(P24:P34)</f>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" ref="Q35" si="29">AVERAGE(Q24:Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" ref="R35" si="30">AVERAGE(R24:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" ref="S35" si="31">AVERAGE(S24:S34)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" ref="T35" si="32">AVERAGE(T24:T34)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" ref="U35" si="33">AVERAGE(U24:U34)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" ref="V35" si="34">AVERAGE(V24:V34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="D36" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J36" s="9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="12"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="12"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="12"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="12"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6">
-        <f t="shared" ref="F41:O41" si="5">AVERAGE(F30:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="15"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:O37" si="35">AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
-      <c r="J42" s="9">
+      <c r="G37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.05</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="35"/>
         <v>0.08</v>
       </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
+      <c r="K37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.18</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.18</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.18</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="35"/>
+        <v>0.18</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="35"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="12"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="6">
-        <f t="shared" ref="F44:O44" si="6">AVERAGE(F42:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="E45" s="8"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="E46" s="8"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="E48" s="8"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="8"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
+      <c r="P37" s="6">
+        <f t="shared" ref="P37" si="36">AVERAGE(P36:P36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" ref="Q37" si="37">AVERAGE(Q36:Q36)</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" ref="R37" si="38">AVERAGE(R36:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" ref="S37" si="39">AVERAGE(S36:S36)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" ref="T37" si="40">AVERAGE(T36:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" ref="U37" si="41">AVERAGE(U36:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" ref="V37" si="42">AVERAGE(V36:V36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="E39" s="8"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
+  <mergeCells count="10">
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B42:B43 B11:E17">
-    <cfRule type="cellIs" dxfId="7" priority="139" operator="equal">
+  <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
+    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C20 E19:E20">
-    <cfRule type="cellIs" dxfId="6" priority="152" operator="equal">
+  <conditionalFormatting sqref="B24:D30">
+    <cfRule type="cellIs" dxfId="6" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D36">
-    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
-    <cfRule type="cellIs" dxfId="4" priority="77" operator="equal">
+  <conditionalFormatting sqref="C36:E36">
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:E43">
-    <cfRule type="cellIs" dxfId="3" priority="106" operator="equal">
+  <conditionalFormatting sqref="D31:D34">
+    <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
-    <cfRule type="cellIs" dxfId="2" priority="78" operator="equal">
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="cellIs" dxfId="2" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E9">
-    <cfRule type="cellIs" dxfId="0" priority="405" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F26">
-    <cfRule type="dataBar" priority="374">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G26">
-    <cfRule type="dataBar" priority="375">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G17">
-    <cfRule type="dataBar" priority="408">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F4B4E4AD-8182-9383-F4B4-E4AD81829383}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F40">
-    <cfRule type="dataBar" priority="411">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D494C48D-A182-B3A3-D494-C48DA182B3A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G40">
-    <cfRule type="dataBar" priority="412">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
-    <cfRule type="dataBar" priority="417">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521B-3716-3524-4262-521B37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G43">
-    <cfRule type="dataBar" priority="418">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="420">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="421">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G9">
-    <cfRule type="dataBar" priority="423">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848D9-2506-3727-5818-48D925063727}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:O26">
-    <cfRule type="dataBar" priority="425">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:O17">
-    <cfRule type="dataBar" priority="426">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E3E6E29-5506-17E7-7E3E-6E29550617E7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:O40">
-    <cfRule type="dataBar" priority="427">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C484D49D-B182-A3B3-C484-D49DB182A3B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:O43">
-    <cfRule type="dataBar" priority="428">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:O28">
-    <cfRule type="dataBar" priority="429">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C686D69F-B392-B1A7-C686-D69FB392B1A7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:O9">
+  <conditionalFormatting sqref="F24:F34">
     <cfRule type="dataBar" priority="430">
       <dataBar>
         <cfvo type="min"/>
@@ -2809,7 +3059,269 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2D1E-3F2F-5818-48412D1E3F2F}</x14:id>
+          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G34">
+    <cfRule type="dataBar" priority="431">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="dataBar" priority="436">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="dataBar" priority="437">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:V24 H25:V34">
+    <cfRule type="dataBar" priority="448">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:V36">
+    <cfRule type="dataBar" priority="451">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:V22">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G7 F8:V12">
+    <cfRule type="dataBar" priority="443">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:V7">
+    <cfRule type="dataBar" priority="444">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D12">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="dataBar" priority="394">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:V12">
+    <cfRule type="dataBar" priority="446">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15 F15 F16:G20">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:V20">
+    <cfRule type="dataBar" priority="457">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2820,7 +3332,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2828,10 +3340,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:F26</xm:sqref>
+          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}">
+          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2839,10 +3351,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G19:G26</xm:sqref>
+          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F4B4E4AD-8182-9383-F4B4-E4AD81829383}">
+          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2850,10 +3362,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F11:G17</xm:sqref>
+          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D494C48D-A182-B3A3-D494-C48DA182B3A3}">
+          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2861,10 +3373,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:F40</xm:sqref>
+          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}">
+          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2872,10 +3384,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30:G40</xm:sqref>
+          <xm:sqref>I24:V24 H25:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521B-3716-3524-4262-521B37163524}">
+          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2883,10 +3395,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42:F43</xm:sqref>
+          <xm:sqref>H36:V36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}">
+          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2894,10 +3406,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G42:G43</xm:sqref>
+          <xm:sqref>I22:V22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CE8EDE97-BB9A-B9A8-CE8E-DE97BB9AB9A8}">
+          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2905,10 +3417,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4AFA5A13-3F1E-3D2C-4AFA-5A133F1E3D2C}">
+          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2916,10 +3428,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848D9-2506-3727-5818-48D925063727}">
+          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2927,10 +3439,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G9</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}">
+          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2938,10 +3450,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19:O26</xm:sqref>
+          <xm:sqref>F6:G7 F8:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E3E6E29-5506-17E7-7E3E-6E29550617E7}">
+          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2949,10 +3461,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11:O17</xm:sqref>
+          <xm:sqref>H6:V7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C484D49D-B182-A3B3-C484-D49DB182A3B3}">
+          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2960,10 +3472,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30:O40</xm:sqref>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}">
+          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2971,10 +3483,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42:O43</xm:sqref>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C686D69F-B392-B1A7-C686-D69FB392B1A7}">
+          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2982,10 +3494,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H28:O28</xm:sqref>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2D1E-3F2F-5818-48412D1E3F2F}">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2993,7 +3505,40 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:O9</xm:sqref>
+          <xm:sqref>H9:V12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14:V20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
